--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,20 +906,22 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>600</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
@@ -902,31 +929,37 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,40 +1002,46 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,14 +1084,14 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1123,60 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
+        <v>300</v>
+      </c>
+      <c r="H17" s="3">
+        <v>200</v>
+      </c>
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,43 +1184,49 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,14 +1254,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>600</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1208,22 +1275,28 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1251,23 +1324,29 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,17 +1354,17 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>200</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1310,16 +1389,22 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F23" s="3">
         <v>-500</v>
@@ -1328,34 +1413,40 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,16 +1539,22 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E26" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F26" s="3">
         <v>-500</v>
@@ -1460,42 +1563,48 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E27" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F27" s="3">
         <v>-500</v>
@@ -1504,34 +1613,40 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,14 +1854,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F32" s="3">
+        <v>100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1736,30 +1875,36 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E33" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F33" s="3">
         <v>-500</v>
@@ -1768,34 +1913,40 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,16 +1989,22 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E35" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F35" s="3">
         <v>-500</v>
@@ -1856,83 +2013,95 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>200</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>300</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,16 +2234,22 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2091,16 +2276,22 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,20 +2334,26 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2179,31 +2376,37 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2100</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -2220,19 +2423,25 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,37 +2484,43 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2000</v>
       </c>
       <c r="M48" s="3">
         <v>2000</v>
@@ -2319,8 +2534,14 @@
       <c r="P48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>8100</v>
+        <v>6500</v>
       </c>
       <c r="E54" s="3">
-        <v>6300</v>
+        <v>7100</v>
       </c>
       <c r="F54" s="3">
+        <v>7800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="I54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J54" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K54" s="3">
         <v>6000</v>
       </c>
-      <c r="G54" s="3">
-        <v>6000</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="L54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,84 +2878,92 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>600</v>
-      </c>
       <c r="G57" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>500</v>
       </c>
       <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
-        <v>400</v>
-      </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
@@ -2707,8 +2974,14 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2751,66 +3024,78 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>300</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>100</v>
+      </c>
+      <c r="H60" s="3">
         <v>900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
       <c r="O60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>100</v>
+      </c>
+      <c r="R60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="E61" s="3">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="F61" s="3">
-        <v>800</v>
+        <v>3800</v>
       </c>
       <c r="G61" s="3">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
@@ -2822,10 +3107,10 @@
         <v>700</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -2839,8 +3124,14 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
-        <v>1500</v>
-      </c>
       <c r="I66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1000</v>
       </c>
       <c r="P66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-98500</v>
+        <v>-96400</v>
       </c>
       <c r="E72" s="3">
-        <v>-98000</v>
+        <v>-95300</v>
       </c>
       <c r="F72" s="3">
-        <v>-98100</v>
+        <v>-95100</v>
       </c>
       <c r="G72" s="3">
-        <v>-98000</v>
+        <v>-94600</v>
       </c>
       <c r="H72" s="3">
-        <v>-97800</v>
+        <v>-94700</v>
       </c>
       <c r="I72" s="3">
+        <v>-94600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-94400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-97600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-97400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-96200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-96100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-95900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-98700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-98400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4000</v>
+        <v>2600</v>
       </c>
       <c r="E76" s="3">
-        <v>4500</v>
+        <v>3700</v>
       </c>
       <c r="F76" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J76" s="3">
         <v>4400</v>
       </c>
-      <c r="H76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>5000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,65 +3894,77 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="E81" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F81" s="3">
         <v>-500</v>
@@ -3584,34 +3973,40 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-800</v>
       </c>
       <c r="P89" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,28 +4809,34 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
-      </c>
-      <c r="H100" s="3">
-        <v>100</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -4354,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4363,13 +4854,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,22 +4909,28 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1700</v>
+        <v>-700</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
+        <v>-800</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -4445,15 +4948,21 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>600</v>
@@ -1131,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>700</v>
@@ -1357,7 +1357,7 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1401,7 +1401,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
@@ -1413,7 +1413,7 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
@@ -1551,7 +1551,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
@@ -1563,7 +1563,7 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
@@ -1601,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
@@ -1613,7 +1613,7 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
@@ -1901,7 +1901,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
@@ -1913,7 +1913,7 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
@@ -2001,7 +2001,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
@@ -2013,7 +2013,7 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
@@ -2149,13 +2149,13 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2402,7 +2402,7 @@
         <v>1300</v>
       </c>
       <c r="F46" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
@@ -2496,25 +2496,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="H48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="I48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="J48" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="K48" s="3">
         <v>6000</v>
@@ -2796,25 +2796,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6500</v>
+        <v>6800</v>
       </c>
       <c r="E54" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="F54" s="3">
-        <v>7800</v>
+        <v>8200</v>
       </c>
       <c r="G54" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H54" s="3">
         <v>6100</v>
       </c>
-      <c r="H54" s="3">
-        <v>5800</v>
-      </c>
       <c r="I54" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="J54" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="K54" s="3">
         <v>6000</v>
@@ -2892,13 +2892,13 @@
         <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
@@ -2951,7 +2951,7 @@
         <v>400</v>
       </c>
       <c r="I58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3042,7 +3042,7 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -3086,25 +3086,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E61" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F61" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="G61" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="H61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
       </c>
       <c r="J61" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -3336,25 +3336,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E66" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="F66" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G66" s="3">
         <v>1800</v>
       </c>
       <c r="H66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="I66" s="3">
         <v>1600</v>
       </c>
       <c r="J66" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
@@ -3606,25 +3606,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-96400</v>
+        <v>-101000</v>
       </c>
       <c r="E72" s="3">
-        <v>-95300</v>
+        <v>-99800</v>
       </c>
       <c r="F72" s="3">
-        <v>-95100</v>
+        <v>-99600</v>
       </c>
       <c r="G72" s="3">
-        <v>-94600</v>
+        <v>-99000</v>
       </c>
       <c r="H72" s="3">
-        <v>-94700</v>
+        <v>-99100</v>
       </c>
       <c r="I72" s="3">
-        <v>-94600</v>
+        <v>-99100</v>
       </c>
       <c r="J72" s="3">
-        <v>-94400</v>
+        <v>-98900</v>
       </c>
       <c r="K72" s="3">
         <v>-97600</v>
@@ -3806,25 +3806,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="E76" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F76" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G76" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="H76" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I76" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="J76" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="K76" s="3">
         <v>4800</v>
@@ -3961,7 +3961,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
@@ -3973,7 +3973,7 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="G100" s="3">
         <v>600</v>
@@ -4927,10 +4927,10 @@
         <v>-800</v>
       </c>
       <c r="F102" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,23 +921,24 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
         <v>0</v>
       </c>
@@ -935,31 +949,34 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>1400</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -1028,23 +1048,23 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-100</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1090,11 +1113,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,58 +1151,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>200</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
+        <v>300</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>100</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1214,52 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,17 +1288,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F20" s="3">
         <v>600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1281,11 +1315,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1330,28 +1367,31 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-800</v>
       </c>
       <c r="R21" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1360,13 +1400,13 @@
         <v>200</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1395,28 +1435,31 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-200</v>
-      </c>
       <c r="H23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
@@ -1425,28 +1468,31 @@
         <v>-200</v>
       </c>
       <c r="L23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-900</v>
       </c>
       <c r="R23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,28 +1594,31 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-200</v>
-      </c>
       <c r="H26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
@@ -1575,48 +1627,51 @@
         <v>-200</v>
       </c>
       <c r="L26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-900</v>
       </c>
       <c r="R26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-200</v>
-      </c>
       <c r="H27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
@@ -1625,28 +1680,31 @@
         <v>-200</v>
       </c>
       <c r="L27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-900</v>
       </c>
       <c r="R27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,17 +1924,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1881,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1895,28 +1965,31 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-200</v>
-      </c>
       <c r="H33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
@@ -1925,28 +1998,31 @@
         <v>-200</v>
       </c>
       <c r="L33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-900</v>
       </c>
       <c r="R33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,28 +2071,31 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-200</v>
-      </c>
       <c r="H35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
@@ -2025,83 +2104,89 @@
         <v>-200</v>
       </c>
       <c r="L35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-900</v>
       </c>
       <c r="R35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,26 +2226,27 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2179,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,20 +2330,23 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
@@ -2282,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2352,11 +2451,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2382,66 +2481,72 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
+        <v>900</v>
+      </c>
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
-        <v>2100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>100</v>
-      </c>
-      <c r="P46" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>900</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,40 +2595,43 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6000</v>
       </c>
       <c r="L48" s="3">
         <v>6000</v>
       </c>
       <c r="M48" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="N48" s="3">
         <v>2000</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="E54" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="F54" s="3">
-        <v>8200</v>
+        <v>7500</v>
       </c>
       <c r="G54" s="3">
-        <v>6400</v>
+        <v>8300</v>
       </c>
       <c r="H54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K54" s="3">
         <v>6100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M54" s="3">
         <v>6100</v>
-      </c>
-      <c r="J54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>6000</v>
-      </c>
-      <c r="L54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="M54" s="3">
-        <v>2100</v>
       </c>
       <c r="N54" s="3">
         <v>2100</v>
       </c>
       <c r="O54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P54" s="3">
         <v>2200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>200</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2941,32 +3075,32 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>400</v>
       </c>
       <c r="J58" s="3">
+        <v>400</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
-      </c>
-      <c r="K58" s="3">
-        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,75 +3167,81 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
       </c>
       <c r="G60" s="3">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
-        <v>0</v>
-      </c>
       <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3700</v>
+        <v>4800</v>
       </c>
       <c r="E61" s="3">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="F61" s="3">
-        <v>3900</v>
+        <v>3400</v>
       </c>
       <c r="G61" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H61" s="3">
         <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>800</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
@@ -3110,11 +3253,11 @@
         <v>800</v>
       </c>
       <c r="L61" s="3">
+        <v>800</v>
+      </c>
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,49 +3485,52 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4100</v>
       </c>
-      <c r="G66" s="3">
-        <v>1800</v>
-      </c>
       <c r="H66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I66" s="3">
         <v>1700</v>
       </c>
-      <c r="I66" s="3">
-        <v>1600</v>
-      </c>
       <c r="J66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K66" s="3">
         <v>1500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
       </c>
       <c r="O66" s="3">
         <v>800</v>
       </c>
       <c r="P66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>1000</v>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-102900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-102200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-101000</v>
       </c>
-      <c r="E72" s="3">
-        <v>-99800</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-99600</v>
-      </c>
       <c r="G72" s="3">
-        <v>-99000</v>
+        <v>-100700</v>
       </c>
       <c r="H72" s="3">
-        <v>-99100</v>
+        <v>-100200</v>
       </c>
       <c r="I72" s="3">
-        <v>-99100</v>
+        <v>-100300</v>
       </c>
       <c r="J72" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-98900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-97400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-96200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-96100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-95900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-98700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-98400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
         <v>2700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J76" s="3">
         <v>4500</v>
       </c>
-      <c r="H76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,83 +4089,89 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-200</v>
-      </c>
       <c r="H81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
@@ -3985,28 +4180,31 @@
         <v>-200</v>
       </c>
       <c r="L81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-900</v>
       </c>
       <c r="R81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-800</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-300</v>
       </c>
       <c r="G89" s="3">
         <v>-300</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,41 +5058,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>600</v>
-      </c>
-      <c r="H100" s="3">
-        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>200</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,26 +5164,29 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -4954,15 +5206,18 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,92 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +802,14 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +861,14 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +920,14 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -931,52 +958,58 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>100</v>
+      </c>
+      <c r="S12" s="3">
+        <v>300</v>
+      </c>
+      <c r="T12" s="3">
         <v>600</v>
       </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
-      </c>
-      <c r="M12" s="3">
-        <v>100</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>300</v>
-      </c>
-      <c r="R12" s="3">
-        <v>600</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1061,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-100</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,8 +1120,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,14 +1161,14 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1203,69 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1600</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>800</v>
+      </c>
+      <c r="I17" s="3">
         <v>300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,52 +1273,58 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1344,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,23 +1355,23 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>600</v>
       </c>
       <c r="G20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H20" s="3">
+        <v>700</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1318,22 +1385,28 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1370,23 +1443,29 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,23 +1476,23 @@
         <v>200</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1517,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
+        <v>100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
       </c>
       <c r="L23" s="3">
         <v>-200</v>
       </c>
       <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1635,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
+        <v>100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
       </c>
       <c r="L26" s="3">
         <v>-200</v>
       </c>
       <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
+        <v>100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
       </c>
       <c r="L27" s="3">
         <v>-200</v>
       </c>
       <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2048,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,23 +2063,23 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-600</v>
       </c>
       <c r="G32" s="3">
+        <v>200</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1954,75 +2093,87 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
+        <v>100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
       </c>
       <c r="L33" s="3">
         <v>-200</v>
       </c>
       <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
+        <v>100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
       </c>
       <c r="L35" s="3">
         <v>-200</v>
       </c>
       <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,32 +2398,34 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1200</v>
       </c>
-      <c r="G41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2269,19 +2442,25 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2512,14 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2342,16 +2527,16 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -2378,16 +2563,22 @@
         <v>0</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2630,14 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2454,14 +2651,14 @@
         <v>0</v>
       </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
@@ -2484,40 +2681,46 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
       </c>
       <c r="F46" s="3">
+        <v>900</v>
+      </c>
+      <c r="G46" s="3">
+        <v>700</v>
+      </c>
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -2534,19 +2737,25 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,46 +2807,52 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="L48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>2000</v>
       </c>
       <c r="P48" s="3">
         <v>2000</v>
@@ -2651,8 +2866,14 @@
       <c r="S48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2925,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3043,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3102,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E54" s="3">
         <v>7000</v>
       </c>
-      <c r="E54" s="3">
-        <v>6900</v>
-      </c>
       <c r="F54" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="G54" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="H54" s="3">
-        <v>6500</v>
+        <v>7800</v>
       </c>
       <c r="I54" s="3">
+        <v>8500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K54" s="3">
         <v>6200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6200</v>
-      </c>
-      <c r="K54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>6000</v>
       </c>
       <c r="M54" s="3">
         <v>6100</v>
       </c>
       <c r="N54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>3000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3270,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,52 +3281,58 @@
         <v>100</v>
       </c>
       <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
-        <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>200</v>
-      </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3078,35 +3345,35 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
@@ -3117,8 +3384,14 @@
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3170,8 +3443,14 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,75 +3458,81 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F60" s="3">
+        <v>100</v>
+      </c>
+      <c r="G60" s="3">
+        <v>400</v>
+      </c>
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>200</v>
-      </c>
       <c r="R60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>100</v>
+      </c>
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E61" s="3">
-        <v>3800</v>
+        <v>4500</v>
       </c>
       <c r="F61" s="3">
-        <v>3400</v>
+        <v>4900</v>
       </c>
       <c r="G61" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="H61" s="3">
-        <v>1700</v>
+        <v>3500</v>
       </c>
       <c r="I61" s="3">
-        <v>800</v>
+        <v>4100</v>
       </c>
       <c r="J61" s="3">
-        <v>800</v>
+        <v>1800</v>
       </c>
       <c r="K61" s="3">
         <v>800</v>
@@ -3256,14 +3541,14 @@
         <v>800</v>
       </c>
       <c r="M61" s="3">
+        <v>800</v>
+      </c>
+      <c r="N61" s="3">
+        <v>800</v>
+      </c>
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3561,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3620,14 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
-        <v>4100</v>
+        <v>4700</v>
       </c>
       <c r="F66" s="3">
-        <v>3600</v>
+        <v>5000</v>
       </c>
       <c r="G66" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J66" s="3">
         <v>1900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1000</v>
       </c>
       <c r="S66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4115,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-102900</v>
+        <v>-106400</v>
       </c>
       <c r="E72" s="3">
-        <v>-102200</v>
+        <v>-106000</v>
       </c>
       <c r="F72" s="3">
-        <v>-101000</v>
+        <v>-106000</v>
       </c>
       <c r="G72" s="3">
-        <v>-100700</v>
+        <v>-105200</v>
       </c>
       <c r="H72" s="3">
+        <v>-104000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-103700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-103200</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-100300</v>
+      </c>
+      <c r="L72" s="3">
         <v>-100200</v>
       </c>
-      <c r="I72" s="3">
-        <v>-100300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-100200</v>
-      </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-98900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-97600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-97400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-96200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-96100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-95900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-98700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-98400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E76" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="F76" s="3">
-        <v>3900</v>
+        <v>2200</v>
       </c>
       <c r="G76" s="3">
-        <v>4100</v>
+        <v>2800</v>
       </c>
       <c r="H76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>5000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1100</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
+        <v>100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
       </c>
       <c r="L81" s="3">
         <v>-200</v>
       </c>
       <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4619,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4674,14 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-800</v>
       </c>
       <c r="S89" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U89" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +5055,10 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +5110,14 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5228,14 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5287,14 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,37 +5546,43 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
-      </c>
-      <c r="K100" s="3">
-        <v>100</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -5100,7 +5591,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5109,13 +5600,19 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,32 +5664,38 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-800</v>
       </c>
-      <c r="G102" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -5209,15 +5712,21 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,23 +972,23 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>-100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
+        <v>700</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -985,31 +999,34 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O12" s="3">
         <v>100</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,19 +1084,22 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1500</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1087,8 +1107,8 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1096,23 +1116,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-100</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1167,11 +1190,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1214,58 +1241,61 @@
         <v>200</v>
       </c>
       <c r="E17" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>1700</v>
+        <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>100</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,58 +1303,61 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>-1700</v>
+        <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-800</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-800</v>
       </c>
       <c r="I18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,26 +1389,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="G20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1391,11 +1425,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1449,23 +1486,26 @@
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-800</v>
       </c>
       <c r="U21" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,13 +1513,13 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
-      </c>
-      <c r="G22" s="3">
-        <v>200</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
@@ -1488,13 +1528,13 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1523,37 +1563,40 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
       </c>
       <c r="G23" s="3">
         <v>-1200</v>
       </c>
       <c r="H23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-200</v>
       </c>
       <c r="M23" s="3">
         <v>-200</v>
@@ -1562,28 +1605,31 @@
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-900</v>
       </c>
       <c r="U23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,37 +1749,40 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
       </c>
       <c r="G26" s="3">
         <v>-1200</v>
       </c>
       <c r="H26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-200</v>
       </c>
       <c r="M26" s="3">
         <v>-200</v>
@@ -1739,57 +1791,60 @@
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-900</v>
       </c>
       <c r="U26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
       </c>
       <c r="G27" s="3">
         <v>-1200</v>
       </c>
       <c r="H27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-200</v>
       </c>
       <c r="M27" s="3">
         <v>-200</v>
@@ -1798,28 +1853,31 @@
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-900</v>
       </c>
       <c r="U27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,26 +2133,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="G32" s="3">
+        <v>900</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2099,11 +2169,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2113,37 +2183,40 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
       </c>
       <c r="G33" s="3">
         <v>-1200</v>
       </c>
       <c r="H33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-200</v>
       </c>
       <c r="M33" s="3">
         <v>-200</v>
@@ -2152,28 +2225,31 @@
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-900</v>
       </c>
       <c r="U33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,37 +2307,40 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
       </c>
       <c r="G35" s="3">
         <v>-1200</v>
       </c>
       <c r="H35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-200</v>
       </c>
       <c r="M35" s="3">
         <v>-200</v>
@@ -2270,92 +2349,98 @@
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-900</v>
       </c>
       <c r="U35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>700</v>
-      </c>
       <c r="G41" s="3">
+        <v>800</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K41" s="3">
+        <v>300</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
+        <v>800</v>
+      </c>
+      <c r="V41" s="3">
         <v>1200</v>
       </c>
-      <c r="I41" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>800</v>
-      </c>
-      <c r="U41" s="3">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,28 +2608,31 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2569,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="S43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T43" s="3">
         <v>100</v>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2657,11 +2756,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -2687,43 +2786,46 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
-        <v>700</v>
-      </c>
       <c r="H46" s="3">
-        <v>1400</v>
+        <v>800</v>
       </c>
       <c r="I46" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="J46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2743,19 +2845,22 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,49 +2918,52 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K48" s="3">
         <v>6400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6200</v>
       </c>
       <c r="L48" s="3">
         <v>6200</v>
       </c>
       <c r="M48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N48" s="3">
         <v>6100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6000</v>
       </c>
       <c r="O48" s="3">
         <v>6000</v>
       </c>
       <c r="P48" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="Q48" s="3">
         <v>2000</v>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>6900</v>
+        <v>7900</v>
       </c>
       <c r="E54" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="F54" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="G54" s="3">
-        <v>7100</v>
+        <v>7600</v>
       </c>
       <c r="H54" s="3">
-        <v>7800</v>
+        <v>7400</v>
       </c>
       <c r="I54" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="J54" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K54" s="3">
         <v>6700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>6200</v>
       </c>
       <c r="L54" s="3">
         <v>6200</v>
       </c>
       <c r="M54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="N54" s="3">
         <v>6100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>2100</v>
       </c>
       <c r="Q54" s="3">
         <v>2100</v>
       </c>
       <c r="R54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S54" s="3">
         <v>2200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>3000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,84 +3402,88 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
       </c>
       <c r="F57" s="3">
+        <v>200</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
       </c>
       <c r="J57" s="3">
+        <v>200</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3358,25 +3492,25 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>400</v>
       </c>
       <c r="M58" s="3">
+        <v>400</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,93 +3586,99 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
       </c>
       <c r="F60" s="3">
+        <v>200</v>
+      </c>
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
       </c>
       <c r="J60" s="3">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
-        <v>0</v>
-      </c>
       <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
-        <v>4500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4900</v>
-      </c>
       <c r="G61" s="3">
-        <v>3900</v>
+        <v>5200</v>
       </c>
       <c r="H61" s="3">
-        <v>3500</v>
+        <v>4100</v>
       </c>
       <c r="I61" s="3">
-        <v>4100</v>
+        <v>3600</v>
       </c>
       <c r="J61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K61" s="3">
         <v>1800</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>800</v>
@@ -3547,11 +3690,11 @@
         <v>800</v>
       </c>
       <c r="O61" s="3">
+        <v>800</v>
+      </c>
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,58 +3958,61 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="E66" s="3">
-        <v>4700</v>
+        <v>5000</v>
       </c>
       <c r="F66" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G66" s="3">
-        <v>4200</v>
+        <v>5300</v>
       </c>
       <c r="H66" s="3">
-        <v>3700</v>
+        <v>4400</v>
       </c>
       <c r="I66" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="J66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K66" s="3">
         <v>1900</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1700</v>
       </c>
       <c r="L66" s="3">
         <v>1700</v>
       </c>
       <c r="M66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N66" s="3">
         <v>1500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
       <c r="S66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>1000</v>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106400</v>
+        <v>-111300</v>
       </c>
       <c r="E72" s="3">
-        <v>-106000</v>
+        <v>-111200</v>
       </c>
       <c r="F72" s="3">
-        <v>-106000</v>
+        <v>-110800</v>
       </c>
       <c r="G72" s="3">
-        <v>-105200</v>
+        <v>-110800</v>
       </c>
       <c r="H72" s="3">
-        <v>-104000</v>
+        <v>-110000</v>
       </c>
       <c r="I72" s="3">
-        <v>-103700</v>
+        <v>-108800</v>
       </c>
       <c r="J72" s="3">
+        <v>-108500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-103200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-100300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-98900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-97600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-96200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-96100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-95900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-98700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-98400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="V76" s="3">
         <v>2300</v>
       </c>
-      <c r="F76" s="3">
-        <v>2200</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="L76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,101 +4664,107 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
       </c>
       <c r="G81" s="3">
         <v>-1200</v>
       </c>
       <c r="H81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-200</v>
       </c>
       <c r="M81" s="3">
         <v>-200</v>
@@ -4578,28 +4773,31 @@
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-900</v>
       </c>
       <c r="U81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4984,58 +5201,61 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-300</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-700</v>
       </c>
       <c r="H89" s="3">
         <v>-800</v>
       </c>
       <c r="I89" s="3">
-        <v>-300</v>
+        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,50 +5795,53 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>2100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K100" s="3">
         <v>600</v>
-      </c>
-      <c r="K100" s="3">
-        <v>200</v>
       </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
+        <v>200</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5606,13 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,35 +5919,38 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-700</v>
       </c>
       <c r="H102" s="3">
         <v>-800</v>
       </c>
       <c r="I102" s="3">
-        <v>1800</v>
+        <v>-900</v>
       </c>
       <c r="J102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -5718,15 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -984,7 +984,7 @@
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1253,7 +1253,7 @@
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1315,7 +1315,7 @@
         <v>-800</v>
       </c>
       <c r="I18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1395,13 +1395,13 @@
         <v>300</v>
       </c>
       <c r="G20" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H20" s="3">
         <v>-200</v>
       </c>
       <c r="I20" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1581,16 +1581,16 @@
         <v>100</v>
       </c>
       <c r="G23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-1300</v>
       </c>
       <c r="I23" s="3">
         <v>-300</v>
       </c>
       <c r="J23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K23" s="3">
         <v>-400</v>
@@ -1767,16 +1767,16 @@
         <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-1300</v>
       </c>
       <c r="I26" s="3">
         <v>-300</v>
       </c>
       <c r="J26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K26" s="3">
         <v>-400</v>
@@ -1829,16 +1829,16 @@
         <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-1300</v>
       </c>
       <c r="I27" s="3">
         <v>-300</v>
       </c>
       <c r="J27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K27" s="3">
         <v>-400</v>
@@ -2139,13 +2139,13 @@
         <v>-300</v>
       </c>
       <c r="G32" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H32" s="3">
         <v>200</v>
       </c>
       <c r="I32" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2201,16 +2201,16 @@
         <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-1300</v>
       </c>
       <c r="I33" s="3">
         <v>-300</v>
       </c>
       <c r="J33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K33" s="3">
         <v>-400</v>
@@ -2325,16 +2325,16 @@
         <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-1300</v>
       </c>
       <c r="I35" s="3">
         <v>-300</v>
       </c>
       <c r="J35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K35" s="3">
         <v>-400</v>
@@ -2493,7 +2493,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
         <v>400</v>
@@ -2502,16 +2502,16 @@
         <v>600</v>
       </c>
       <c r="G41" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J41" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="K41" s="3">
         <v>300</v>
@@ -2623,7 +2623,7 @@
         <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
@@ -2632,7 +2632,7 @@
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E46" s="3">
         <v>500</v>
@@ -2815,13 +2815,13 @@
         <v>900</v>
       </c>
       <c r="H46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I46" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J46" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
@@ -2927,25 +2927,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="E48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="F48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="G48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="H48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="I48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="J48" s="3">
-        <v>6600</v>
+        <v>6200</v>
       </c>
       <c r="K48" s="3">
         <v>6400</v>
@@ -3299,25 +3299,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="E54" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="F54" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G54" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I54" s="3">
         <v>7600</v>
       </c>
-      <c r="H54" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>8100</v>
-      </c>
       <c r="J54" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="K54" s="3">
         <v>6700</v>
@@ -3412,7 +3412,7 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3421,7 +3421,7 @@
         <v>100</v>
       </c>
       <c r="H57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3598,7 +3598,7 @@
         <v>200</v>
       </c>
       <c r="E60" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>200</v>
@@ -3607,7 +3607,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3657,25 +3657,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>4900</v>
+        <v>4600</v>
       </c>
       <c r="F61" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="G61" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="H61" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="I61" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J61" s="3">
-        <v>4300</v>
+        <v>4000</v>
       </c>
       <c r="K61" s="3">
         <v>1800</v>
@@ -3967,25 +3967,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="E66" s="3">
-        <v>5000</v>
+        <v>4700</v>
       </c>
       <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4900</v>
       </c>
-      <c r="G66" s="3">
-        <v>5300</v>
-      </c>
       <c r="H66" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I66" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="J66" s="3">
-        <v>4500</v>
+        <v>4200</v>
       </c>
       <c r="K66" s="3">
         <v>1900</v>
@@ -4301,25 +4301,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-111300</v>
+        <v>-104600</v>
       </c>
       <c r="E72" s="3">
-        <v>-111200</v>
+        <v>-104600</v>
       </c>
       <c r="F72" s="3">
-        <v>-110800</v>
+        <v>-104200</v>
       </c>
       <c r="G72" s="3">
-        <v>-110800</v>
+        <v>-104200</v>
       </c>
       <c r="H72" s="3">
-        <v>-110000</v>
+        <v>-103500</v>
       </c>
       <c r="I72" s="3">
-        <v>-108800</v>
+        <v>-102300</v>
       </c>
       <c r="J72" s="3">
-        <v>-108500</v>
+        <v>-102000</v>
       </c>
       <c r="K72" s="3">
         <v>-103200</v>
@@ -4549,25 +4549,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H76" s="3">
         <v>2800</v>
       </c>
-      <c r="E76" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>3000</v>
-      </c>
       <c r="I76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J76" s="3">
         <v>4200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>4400</v>
       </c>
       <c r="K76" s="3">
         <v>4700</v>
@@ -4749,16 +4749,16 @@
         <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-1300</v>
       </c>
       <c r="I81" s="3">
         <v>-300</v>
       </c>
       <c r="J81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K81" s="3">
         <v>-400</v>
@@ -5210,10 +5210,10 @@
         <v>-300</v>
       </c>
       <c r="H89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I89" s="3">
         <v>-800</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-900</v>
       </c>
       <c r="J89" s="3">
         <v>-300</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -5822,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K100" s="3">
         <v>600</v>
@@ -5940,13 +5940,13 @@
         <v>200</v>
       </c>
       <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-800</v>
       </c>
-      <c r="I102" s="3">
-        <v>-900</v>
-      </c>
       <c r="J102" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K102" s="3">
         <v>300</v>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,100 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,23 +989,23 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>-100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
@@ -1002,31 +1016,34 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>100</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,28 +1104,31 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1119,23 +1139,23 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1193,11 +1216,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1244,58 +1271,61 @@
         <v>200</v>
       </c>
       <c r="F17" s="3">
+        <v>200</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
-        <v>700</v>
-      </c>
       <c r="J17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
       </c>
       <c r="N17" s="3">
         <v>100</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1306,58 +1336,61 @@
         <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>-700</v>
-      </c>
       <c r="J18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,29 +1423,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>-800</v>
-      </c>
       <c r="H20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>600</v>
-      </c>
       <c r="J20" s="3">
+        <v>700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1428,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1442,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1489,23 +1526,26 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-800</v>
       </c>
       <c r="V21" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1516,13 +1556,13 @@
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
-      </c>
-      <c r="H22" s="3">
-        <v>200</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
@@ -1531,13 +1571,13 @@
         <v>200</v>
       </c>
       <c r="K22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>300</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1566,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1575,31 +1618,31 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1100</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
       </c>
       <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
@@ -1608,28 +1651,31 @@
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-900</v>
       </c>
       <c r="V23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1761,31 +1813,31 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1100</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
@@ -1794,28 +1846,31 @@
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-600</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-900</v>
       </c>
       <c r="V26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1823,31 +1878,31 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1100</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
       </c>
       <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
@@ -1856,28 +1911,31 @@
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-600</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-900</v>
       </c>
       <c r="V27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,29 +2203,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>800</v>
-      </c>
       <c r="H32" s="3">
+        <v>900</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-600</v>
-      </c>
       <c r="J32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2172,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2186,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2195,31 +2268,31 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1100</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
       </c>
       <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
@@ -2228,28 +2301,31 @@
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-600</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-900</v>
       </c>
       <c r="V33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2319,31 +2398,31 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1100</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
       </c>
       <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
@@ -2352,95 +2431,101 @@
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-600</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-900</v>
       </c>
       <c r="V35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,38 +2573,39 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2538,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2620,23 +2713,23 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
@@ -2665,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U43" s="3">
         <v>100</v>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2759,11 +2858,11 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2789,46 +2888,49 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2848,19 +2950,22 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,52 +3026,55 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6200</v>
       </c>
       <c r="M48" s="3">
         <v>6200</v>
       </c>
       <c r="N48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O48" s="3">
         <v>6100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6000</v>
       </c>
       <c r="P48" s="3">
         <v>6000</v>
       </c>
       <c r="Q48" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="R48" s="3">
         <v>2000</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="I54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L54" s="3">
         <v>6700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G54" s="3">
-        <v>7100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>7000</v>
-      </c>
-      <c r="I54" s="3">
-        <v>7600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>8400</v>
-      </c>
-      <c r="K54" s="3">
-        <v>6700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>6200</v>
       </c>
       <c r="M54" s="3">
         <v>6200</v>
       </c>
       <c r="N54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="O54" s="3">
         <v>6100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>2100</v>
       </c>
       <c r="R54" s="3">
         <v>2100</v>
       </c>
       <c r="S54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T54" s="3">
         <v>2200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>3000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>300</v>
-      </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>200</v>
       </c>
       <c r="K57" s="3">
+        <v>200</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>600</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
       </c>
       <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3495,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>400</v>
       </c>
       <c r="N58" s="3">
+        <v>400</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,70 +3726,76 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
         <v>200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
-        <v>300</v>
-      </c>
       <c r="I60" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
       </c>
       <c r="K60" s="3">
+        <v>200</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
-        <v>0</v>
-      </c>
       <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3663,25 +3806,25 @@
         <v>4600</v>
       </c>
       <c r="F61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="G61" s="3">
-        <v>4800</v>
+        <v>4500</v>
       </c>
       <c r="H61" s="3">
-        <v>3800</v>
+        <v>4900</v>
       </c>
       <c r="I61" s="3">
-        <v>3400</v>
+        <v>3900</v>
       </c>
       <c r="J61" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K61" s="3">
         <v>4000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1800</v>
-      </c>
-      <c r="L61" s="3">
-        <v>800</v>
       </c>
       <c r="M61" s="3">
         <v>800</v>
@@ -3693,11 +3836,11 @@
         <v>800</v>
       </c>
       <c r="P61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,61 +4116,64 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E66" s="3">
         <v>4800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="F66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G66" s="3">
-        <v>4900</v>
-      </c>
       <c r="H66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I66" s="3">
         <v>4200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>1700</v>
       </c>
       <c r="M66" s="3">
         <v>1700</v>
       </c>
       <c r="N66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O66" s="3">
         <v>1500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
       <c r="T66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="U66" s="3">
         <v>1000</v>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-104600</v>
+        <v>-105700</v>
       </c>
       <c r="E72" s="3">
-        <v>-104600</v>
+        <v>-105400</v>
       </c>
       <c r="F72" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-104900</v>
+      </c>
+      <c r="I72" s="3">
         <v>-104200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-104200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-103500</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-102300</v>
-      </c>
       <c r="J72" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-102000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-103200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-100300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-100200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-98900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-97600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-97400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-96200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-96100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-95900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-98700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-98400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E76" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>4700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>2000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4743,31 +4938,31 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1100</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
       </c>
       <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
@@ -4776,28 +4971,31 @@
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-600</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-900</v>
       </c>
       <c r="V81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5204,58 +5421,61 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-800</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-300</v>
       </c>
       <c r="K89" s="3">
         <v>-300</v>
       </c>
       <c r="L89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M89" s="3">
         <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,53 +6041,56 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
-      </c>
-      <c r="L100" s="3">
-        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>200</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,38 +6171,41 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5973,15 +6225,18 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,107 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -822,8 +829,14 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,8 +900,14 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -952,8 +971,14 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,26 +1019,26 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
@@ -1019,31 +1046,37 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1140,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1142,26 +1181,26 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1172,8 +1211,14 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1219,14 +1264,14 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
+      <c r="R15" s="3">
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,73 +1310,81 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
         <v>200</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1392,70 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1479,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,35 +1490,35 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1465,22 +1532,28 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1529,23 +1602,29 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,7 +1638,7 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1568,23 +1647,23 @@
         <v>200</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
@@ -1609,73 +1688,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-400</v>
       </c>
       <c r="M23" s="3">
         <v>-500</v>
       </c>
       <c r="N23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1830,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-400</v>
       </c>
       <c r="M26" s="3">
         <v>-500</v>
       </c>
       <c r="N26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-400</v>
       </c>
       <c r="M27" s="3">
         <v>-500</v>
       </c>
       <c r="N27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2327,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,35 +2342,35 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2245,87 +2384,99 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-400</v>
       </c>
       <c r="M33" s="3">
         <v>-500</v>
       </c>
       <c r="N33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-400</v>
       </c>
       <c r="M35" s="3">
         <v>-500</v>
       </c>
       <c r="N35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,44 +2745,46 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>700</v>
+      </c>
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2628,19 +2801,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2883,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2725,16 +2910,16 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>100</v>
       </c>
       <c r="K43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2761,16 +2946,22 @@
         <v>0</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +3025,14 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2861,14 +3058,14 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -2891,52 +3088,58 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>100</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>800</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
-      </c>
-      <c r="G46" s="3">
-        <v>700</v>
-      </c>
-      <c r="H46" s="3">
-        <v>900</v>
       </c>
       <c r="I46" s="3">
         <v>700</v>
       </c>
       <c r="J46" s="3">
+        <v>900</v>
+      </c>
+      <c r="K46" s="3">
+        <v>700</v>
+      </c>
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -2953,19 +3156,25 @@
         <v>0</v>
       </c>
       <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
         <v>100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,13 +3238,19 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6300</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
         <v>6300</v>
@@ -3056,31 +3271,31 @@
         <v>6300</v>
       </c>
       <c r="K48" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="L48" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="M48" s="3">
         <v>6200</v>
       </c>
       <c r="N48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>2000</v>
       </c>
       <c r="T48" s="3">
         <v>2000</v>
@@ -3094,8 +3309,14 @@
       <c r="W48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3380,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3522,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3300,20 +3539,20 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3354,8 +3593,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F54" s="3">
         <v>7300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>7500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6800</v>
-      </c>
-      <c r="G54" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H54" s="3">
-        <v>7200</v>
       </c>
       <c r="I54" s="3">
         <v>7000</v>
       </c>
       <c r="J54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="L54" s="3">
         <v>7700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>6200</v>
-      </c>
-      <c r="O54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="P54" s="3">
-        <v>6000</v>
       </c>
       <c r="Q54" s="3">
         <v>6100</v>
       </c>
       <c r="R54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>2200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,13 +3793,15 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>100</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>200</v>
@@ -3555,75 +3816,81 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>100</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>200</v>
-      </c>
       <c r="V57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3632,28 +3899,28 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
+      <c r="T58" s="3">
+        <v>0</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
@@ -3664,8 +3931,14 @@
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3729,13 +4002,19 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>4400</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -3750,87 +4029,93 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>100</v>
+      </c>
+      <c r="K60" s="3">
         <v>400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
-      <c r="T60" s="3">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
-      </c>
       <c r="V60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>800</v>
       </c>
       <c r="E61" s="3">
-        <v>4600</v>
+        <v>4800</v>
       </c>
       <c r="F61" s="3">
         <v>4600</v>
       </c>
       <c r="G61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1800</v>
-      </c>
-      <c r="M61" s="3">
-        <v>800</v>
-      </c>
-      <c r="N61" s="3">
-        <v>800</v>
       </c>
       <c r="O61" s="3">
         <v>800</v>
@@ -3839,14 +4124,14 @@
         <v>800</v>
       </c>
       <c r="Q61" s="3">
+        <v>800</v>
+      </c>
+      <c r="R61" s="3">
+        <v>800</v>
+      </c>
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -3859,31 +4144,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3924,8 +4215,14 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3700</v>
       </c>
       <c r="K66" s="3">
         <v>4200</v>
       </c>
       <c r="L66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V66" s="3">
-        <v>1000</v>
       </c>
       <c r="W66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4810,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-105700</v>
+        <v>-106400</v>
       </c>
       <c r="E72" s="3">
-        <v>-105400</v>
+        <v>-106000</v>
       </c>
       <c r="F72" s="3">
+        <v>-105600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-105300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
+        <v>-105300</v>
+      </c>
+      <c r="I72" s="3">
         <v>-104900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-104900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-104200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-103000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-102000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-103200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-100300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-100200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-98900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-97600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-97400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-96200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-96100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-95900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-98700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-98400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F76" s="3">
         <v>2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>2300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>4700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>4500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>4600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>5000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>2000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-400</v>
       </c>
       <c r="M81" s="3">
         <v>-500</v>
       </c>
       <c r="N81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5414,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5481,14 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5836,14 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5424,58 +5857,64 @@
         <v>-200</v>
       </c>
       <c r="G89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-800</v>
       </c>
       <c r="W89" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5938,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +6005,14 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +6147,14 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +6218,14 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,49 +6529,55 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>2100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
-      </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -6095,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6104,13 +6595,19 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6671,14 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6183,35 +6686,35 @@
         <v>-200</v>
       </c>
       <c r="E102" s="3">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>1800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -6228,15 +6731,21 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -1505,7 +1505,7 @@
         <v>300</v>
       </c>
       <c r="J20" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
@@ -1703,7 +1703,7 @@
         <v>-400</v>
       </c>
       <c r="E23" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F23" s="3">
         <v>-300</v>
@@ -1718,7 +1718,7 @@
         <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
@@ -1916,7 +1916,7 @@
         <v>-400</v>
       </c>
       <c r="E26" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
         <v>-300</v>
@@ -1931,7 +1931,7 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
@@ -1987,7 +1987,7 @@
         <v>-400</v>
       </c>
       <c r="E27" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F27" s="3">
         <v>-300</v>
@@ -2002,7 +2002,7 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
@@ -2357,7 +2357,7 @@
         <v>-300</v>
       </c>
       <c r="J32" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
@@ -2413,7 +2413,7 @@
         <v>-400</v>
       </c>
       <c r="E33" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F33" s="3">
         <v>-300</v>
@@ -2428,7 +2428,7 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
@@ -2555,7 +2555,7 @@
         <v>-400</v>
       </c>
       <c r="E35" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F35" s="3">
         <v>-300</v>
@@ -2570,7 +2570,7 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
@@ -3111,10 +3111,10 @@
         <v>600</v>
       </c>
       <c r="E46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F46" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G46" s="3">
         <v>1200</v>
@@ -3250,25 +3250,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="E48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="G48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="H48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="I48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="J48" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K48" s="3">
         <v>6300</v>
@@ -3676,25 +3676,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="E54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F54" s="3">
         <v>7100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7300</v>
       </c>
-      <c r="G54" s="3">
-        <v>7500</v>
-      </c>
       <c r="H54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I54" s="3">
         <v>6800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>7200</v>
       </c>
       <c r="K54" s="3">
         <v>7000</v>
@@ -3872,7 +3872,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -4014,7 +4014,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -4085,25 +4085,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J61" s="3">
         <v>4800</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>4900</v>
       </c>
       <c r="K61" s="3">
         <v>3900</v>
@@ -4440,25 +4440,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5400</v>
+        <v>5300</v>
       </c>
       <c r="E66" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="F66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G66" s="3">
         <v>4700</v>
       </c>
-      <c r="G66" s="3">
-        <v>4800</v>
-      </c>
       <c r="H66" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I66" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J66" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="K66" s="3">
         <v>4200</v>
@@ -4822,25 +4822,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-106400</v>
+        <v>-104000</v>
       </c>
       <c r="E72" s="3">
-        <v>-106000</v>
+        <v>-103600</v>
       </c>
       <c r="F72" s="3">
-        <v>-105600</v>
+        <v>-103200</v>
       </c>
       <c r="G72" s="3">
-        <v>-105300</v>
+        <v>-102900</v>
       </c>
       <c r="H72" s="3">
-        <v>-105300</v>
+        <v>-102900</v>
       </c>
       <c r="I72" s="3">
-        <v>-104900</v>
+        <v>-102500</v>
       </c>
       <c r="J72" s="3">
-        <v>-104900</v>
+        <v>-102500</v>
       </c>
       <c r="K72" s="3">
         <v>-104200</v>
@@ -5109,22 +5109,22 @@
         <v>2100</v>
       </c>
       <c r="E76" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F76" s="3">
         <v>2500</v>
       </c>
       <c r="G76" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H76" s="3">
         <v>2000</v>
       </c>
       <c r="I76" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="J76" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K76" s="3">
         <v>2800</v>
@@ -5327,7 +5327,7 @@
         <v>-400</v>
       </c>
       <c r="E81" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F81" s="3">
         <v>-300</v>
@@ -5342,7 +5342,7 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,13 +1017,14 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -1025,23 +1039,23 @@
         <v>100</v>
       </c>
       <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>-100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
@@ -1052,31 +1066,34 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>100</v>
       </c>
       <c r="T12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,16 +1163,19 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1172,8 +1192,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1187,23 +1207,23 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>-100</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1270,11 +1293,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,19 +1338,20 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>6400</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G17" s="3">
         <v>200</v>
@@ -1333,58 +1360,61 @@
         <v>200</v>
       </c>
       <c r="I17" s="3">
+        <v>200</v>
+      </c>
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>100</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
       </c>
       <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
       </c>
       <c r="U17" s="3">
         <v>100</v>
       </c>
       <c r="V17" s="3">
+        <v>100</v>
+      </c>
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,7 +1425,7 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
@@ -1404,58 +1434,61 @@
         <v>-200</v>
       </c>
       <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-800</v>
       </c>
       <c r="L18" s="3">
         <v>-800</v>
       </c>
       <c r="M18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="N18" s="3">
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1490,38 +1524,38 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1538,11 +1572,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1608,23 +1645,26 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-800</v>
       </c>
       <c r="Y21" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1644,13 +1684,13 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1659,13 +1699,13 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>300</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1694,49 +1734,52 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E23" s="3">
         <v>-400</v>
       </c>
       <c r="F23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
@@ -1745,28 +1788,31 @@
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-600</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-900</v>
       </c>
       <c r="Y23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,49 +1956,52 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-200</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
@@ -1958,69 +2010,72 @@
         <v>-200</v>
       </c>
       <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-600</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-900</v>
       </c>
       <c r="Y26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E27" s="3">
         <v>-400</v>
       </c>
       <c r="F27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-200</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
@@ -2029,28 +2084,31 @@
         <v>-200</v>
       </c>
       <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-600</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-900</v>
       </c>
       <c r="Y27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,38 +2412,38 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2390,11 +2460,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2404,49 +2474,52 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E33" s="3">
         <v>-400</v>
       </c>
       <c r="F33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-200</v>
       </c>
       <c r="Q33" s="3">
         <v>-200</v>
@@ -2455,28 +2528,31 @@
         <v>-200</v>
       </c>
       <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-600</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-900</v>
       </c>
       <c r="Y33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,49 +2622,52 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E35" s="3">
         <v>-400</v>
       </c>
       <c r="F35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-200</v>
       </c>
       <c r="Q35" s="3">
         <v>-200</v>
@@ -2597,104 +2676,110 @@
         <v>-200</v>
       </c>
       <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-600</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-900</v>
       </c>
       <c r="Y35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,47 +2833,48 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2807,19 +2894,22 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,32 +2991,32 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
-      </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
@@ -2952,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3064,11 +3163,11 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -3094,87 +3193,93 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>400</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>500</v>
+      </c>
+      <c r="J46" s="3">
+        <v>700</v>
+      </c>
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="L46" s="3">
+        <v>700</v>
+      </c>
+      <c r="M46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N46" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>100</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
-        <v>700</v>
-      </c>
-      <c r="J46" s="3">
+      <c r="Y46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
-        <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="M46" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>100</v>
-      </c>
-      <c r="W46" s="3">
-        <v>500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>900</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,61 +3349,64 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6800</v>
+        <v>700</v>
       </c>
       <c r="E48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="K48" s="3">
         <v>6100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6300</v>
       </c>
       <c r="L48" s="3">
         <v>6300</v>
       </c>
       <c r="M48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6200</v>
       </c>
       <c r="P48" s="3">
         <v>6200</v>
       </c>
       <c r="Q48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R48" s="3">
         <v>6100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>6000</v>
       </c>
       <c r="S48" s="3">
         <v>6000</v>
       </c>
       <c r="T48" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="U48" s="3">
         <v>2000</v>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3539,8 +3659,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -3554,8 +3674,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E54" s="3">
         <v>7400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>7200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>7400</v>
+      </c>
+      <c r="I54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J54" s="3">
         <v>6900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>7300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>6800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>7000</v>
       </c>
       <c r="K54" s="3">
         <v>7000</v>
       </c>
       <c r="L54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="M54" s="3">
         <v>7700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>6200</v>
       </c>
       <c r="P54" s="3">
         <v>6200</v>
       </c>
       <c r="Q54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="R54" s="3">
         <v>6100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2100</v>
       </c>
       <c r="U54" s="3">
         <v>2100</v>
       </c>
       <c r="V54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W54" s="3">
         <v>2200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>3000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,78 +3935,81 @@
         <v>800</v>
       </c>
       <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>500</v>
       </c>
       <c r="Q57" s="3">
         <v>500</v>
       </c>
       <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>3600</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>4</v>
+      <c r="E58" s="3">
+        <v>3600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>4</v>
@@ -3892,8 +4026,8 @@
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3905,25 +4039,25 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
+        <v>400</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,79 +4145,85 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F60" s="3">
         <v>200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
       <c r="N60" s="3">
+        <v>200</v>
+      </c>
+      <c r="O60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>100</v>
       </c>
-      <c r="V60" s="3">
-        <v>0</v>
-      </c>
       <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,37 +4231,37 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
+        <v>800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4700</v>
       </c>
-      <c r="F61" s="3">
-        <v>4500</v>
-      </c>
       <c r="G61" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="H61" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1800</v>
-      </c>
-      <c r="O61" s="3">
-        <v>800</v>
       </c>
       <c r="P61" s="3">
         <v>800</v>
@@ -4130,11 +4273,11 @@
         <v>800</v>
       </c>
       <c r="S61" s="3">
+        <v>800</v>
+      </c>
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4150,16 +4293,19 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -4176,8 +4322,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,19 +4589,22 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4900</v>
-      </c>
-      <c r="F66" s="3">
-        <v>4600</v>
       </c>
       <c r="G66" s="3">
         <v>4700</v>
@@ -4455,49 +4613,49 @@
         <v>4700</v>
       </c>
       <c r="I66" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>1700</v>
       </c>
       <c r="P66" s="3">
         <v>1700</v>
       </c>
       <c r="Q66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R66" s="3">
         <v>1500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>1000</v>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4987,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-104000</v>
+        <v>-111400</v>
       </c>
       <c r="E72" s="3">
-        <v>-103600</v>
+        <v>-104900</v>
       </c>
       <c r="F72" s="3">
+        <v>-104500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-104100</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-103800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-103400</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-102500</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-104200</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-102000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-103200</v>
       </c>
-      <c r="G72" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-102500</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-102500</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-104200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-103000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-102000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-103200</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-100300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-98900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-97600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-96200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-96100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-95900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-98700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-98400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E76" s="3">
         <v>2100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>2000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,125 +5431,131 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-6500</v>
       </c>
       <c r="E81" s="3">
         <v>-400</v>
       </c>
       <c r="F81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-200</v>
       </c>
       <c r="Q81" s="3">
         <v>-200</v>
@@ -5369,28 +5564,31 @@
         <v>-200</v>
       </c>
       <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-600</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-900</v>
       </c>
       <c r="Y81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5863,58 +6080,61 @@
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-300</v>
       </c>
       <c r="N89" s="3">
         <v>-300</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,62 +6778,65 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>200</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -6601,13 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6692,32 +6944,32 @@
         <v>-200</v>
       </c>
       <c r="G102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -6737,15 +6989,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,111 +665,115 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -990,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1027,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>100</v>
@@ -1042,23 +1056,23 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>-100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
@@ -1069,31 +1083,34 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,19 +1183,22 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>6200</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>6000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1195,8 +1215,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1210,23 +1230,23 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>-100</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1240,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1296,11 +1319,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,22 +1365,23 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6400</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>300</v>
+        <v>6200</v>
       </c>
       <c r="F17" s="3">
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>200</v>
@@ -1363,58 +1390,61 @@
         <v>200</v>
       </c>
       <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>100</v>
       </c>
       <c r="R17" s="3">
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>100</v>
       </c>
       <c r="V17" s="3">
         <v>100</v>
       </c>
       <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,13 +1452,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-300</v>
+        <v>-6200</v>
       </c>
       <c r="F18" s="3">
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-200</v>
@@ -1437,58 +1467,61 @@
         <v>-200</v>
       </c>
       <c r="J18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-800</v>
       </c>
       <c r="M18" s="3">
         <v>-800</v>
       </c>
       <c r="N18" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-100</v>
       </c>
       <c r="R18" s="3">
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-100</v>
       </c>
       <c r="V18" s="3">
         <v>-100</v>
       </c>
       <c r="W18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,59 +1561,59 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>300</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>700</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>300</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>700</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1589,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1648,23 +1685,26 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-800</v>
       </c>
       <c r="Z21" s="3">
         <v>-800</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3">
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1687,13 +1727,13 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1702,13 +1742,13 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>300</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1737,52 +1777,55 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F23" s="3">
         <v>-400</v>
       </c>
       <c r="G23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-200</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
@@ -1791,28 +1834,31 @@
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-900</v>
       </c>
       <c r="Z23" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,52 +2008,55 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F26" s="3">
         <v>-400</v>
       </c>
       <c r="G26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-200</v>
       </c>
       <c r="R26" s="3">
         <v>-200</v>
@@ -2013,72 +2065,75 @@
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-900</v>
       </c>
       <c r="Z26" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F27" s="3">
         <v>-400</v>
       </c>
       <c r="G27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-200</v>
       </c>
       <c r="R27" s="3">
         <v>-200</v>
@@ -2087,28 +2142,31 @@
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-900</v>
       </c>
       <c r="Z27" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,59 +2485,59 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L32" s="3">
+        <v>800</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="K32" s="3">
-        <v>800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2477,52 +2547,55 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F33" s="3">
         <v>-400</v>
       </c>
       <c r="G33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-200</v>
       </c>
       <c r="R33" s="3">
         <v>-200</v>
@@ -2531,28 +2604,31 @@
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-900</v>
       </c>
       <c r="Z33" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,52 +2701,55 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F35" s="3">
         <v>-400</v>
       </c>
       <c r="G35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-200</v>
       </c>
       <c r="R35" s="3">
         <v>-200</v>
@@ -2679,107 +2758,113 @@
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-900</v>
       </c>
       <c r="Z35" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,50 +2920,51 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
-        <v>900</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
-      </c>
-      <c r="K41" s="3">
-        <v>700</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2897,19 +2984,22 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2994,32 +3087,32 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
       <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
-      </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
@@ -3048,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
@@ -3056,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3130,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3166,11 +3265,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -3196,58 +3295,61 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
-        <v>600</v>
-      </c>
       <c r="F46" s="3">
+        <v>500</v>
+      </c>
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
-        <v>1000</v>
-      </c>
       <c r="H46" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -3267,19 +3369,22 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
         <v>100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3361,55 +3469,55 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>6900</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6000</v>
+      </c>
+      <c r="K48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6300</v>
       </c>
       <c r="M48" s="3">
         <v>6300</v>
       </c>
       <c r="N48" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6400</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6200</v>
       </c>
       <c r="Q48" s="3">
         <v>6200</v>
       </c>
       <c r="R48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S48" s="3">
         <v>6100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6000</v>
       </c>
       <c r="T48" s="3">
         <v>6000</v>
       </c>
       <c r="U48" s="3">
-        <v>2000</v>
+        <v>6000</v>
       </c>
       <c r="V48" s="3">
         <v>2000</v>
@@ -3426,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3662,8 +3782,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -3677,8 +3797,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1000</v>
       </c>
-      <c r="E54" s="3">
-        <v>7400</v>
-      </c>
       <c r="F54" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="G54" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>6900</v>
+      </c>
+      <c r="I54" s="3">
         <v>7200</v>
       </c>
-      <c r="H54" s="3">
-        <v>7400</v>
-      </c>
-      <c r="I54" s="3">
-        <v>6700</v>
-      </c>
       <c r="J54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K54" s="3">
         <v>6900</v>
-      </c>
-      <c r="K54" s="3">
-        <v>7000</v>
       </c>
       <c r="L54" s="3">
         <v>7000</v>
       </c>
       <c r="M54" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N54" s="3">
         <v>7700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>6200</v>
       </c>
       <c r="Q54" s="3">
         <v>6200</v>
       </c>
       <c r="R54" s="3">
+        <v>6200</v>
+      </c>
+      <c r="S54" s="3">
         <v>6100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>2100</v>
       </c>
       <c r="V54" s="3">
         <v>2100</v>
       </c>
       <c r="W54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X54" s="3">
         <v>2200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>3000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,93 +4056,97 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>600</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>500</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>500</v>
+      </c>
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>1200</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
+        <v>3500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3500</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
@@ -4029,8 +4163,8 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4042,25 +4176,25 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>400</v>
       </c>
       <c r="R58" s="3">
+        <v>400</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
@@ -4074,31 +4208,34 @@
       <c r="Z58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4148,123 +4285,129 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4400</v>
+        <v>1500</v>
       </c>
       <c r="E60" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="F60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G60" s="3">
         <v>200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>400</v>
-      </c>
-      <c r="M60" s="3">
-        <v>200</v>
       </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>100</v>
       </c>
-      <c r="W60" s="3">
-        <v>0</v>
-      </c>
       <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
-        <v>800</v>
-      </c>
       <c r="F61" s="3">
-        <v>4700</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
         <v>4600</v>
       </c>
       <c r="H61" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="I61" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J61" s="3">
         <v>4400</v>
       </c>
       <c r="K61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L61" s="3">
         <v>4800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1800</v>
-      </c>
-      <c r="P61" s="3">
-        <v>800</v>
       </c>
       <c r="Q61" s="3">
         <v>800</v>
@@ -4276,11 +4419,11 @@
         <v>800</v>
       </c>
       <c r="T61" s="3">
+        <v>800</v>
+      </c>
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
@@ -4296,8 +4439,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4307,8 +4453,8 @@
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4325,8 +4471,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,73 +4747,76 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5400</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="F66" s="3">
-        <v>4900</v>
+        <v>5200</v>
       </c>
       <c r="G66" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="H66" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="I66" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="J66" s="3">
         <v>4600</v>
       </c>
       <c r="K66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="L66" s="3">
         <v>4900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1700</v>
       </c>
       <c r="Q66" s="3">
         <v>1700</v>
       </c>
       <c r="R66" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S66" s="3">
         <v>1500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>900</v>
-      </c>
-      <c r="V66" s="3">
-        <v>800</v>
       </c>
       <c r="W66" s="3">
         <v>800</v>
       </c>
       <c r="X66" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Y66" s="3">
         <v>1000</v>
@@ -4666,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-111400</v>
+        <v>-108000</v>
       </c>
       <c r="E72" s="3">
-        <v>-104900</v>
+        <v>-108100</v>
       </c>
       <c r="F72" s="3">
-        <v>-104500</v>
+        <v>-101800</v>
       </c>
       <c r="G72" s="3">
-        <v>-104100</v>
+        <v>-101400</v>
       </c>
       <c r="H72" s="3">
-        <v>-103800</v>
+        <v>-101000</v>
       </c>
       <c r="I72" s="3">
-        <v>-103800</v>
+        <v>-100800</v>
       </c>
       <c r="J72" s="3">
+        <v>-100700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-103400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-102500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-104200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-103000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-102000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-103200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-100300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-100200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-98900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-97600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-97400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-96200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-96100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-95900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-98700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-98400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-4300</v>
+        <v>-800</v>
       </c>
       <c r="E76" s="3">
-        <v>2100</v>
+        <v>-4200</v>
       </c>
       <c r="F76" s="3">
         <v>2000</v>
       </c>
       <c r="G76" s="3">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="H76" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I76" s="3">
         <v>2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="O76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="T76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="U76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="V76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>2000</v>
       </c>
-      <c r="J76" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>4000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>4700</v>
-      </c>
-      <c r="P76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>4800</v>
-      </c>
-      <c r="T76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,131 +5623,137 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
-        <v>-400</v>
+        <v>-6300</v>
       </c>
       <c r="F81" s="3">
         <v>-400</v>
       </c>
       <c r="G81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-200</v>
       </c>
       <c r="R81" s="3">
         <v>-200</v>
@@ -5567,28 +5762,31 @@
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-600</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-900</v>
       </c>
       <c r="Z81" s="3">
         <v>-900</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>-900</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5689,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,13 +6273,16 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>-200</v>
@@ -6083,58 +6300,61 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-300</v>
       </c>
       <c r="O89" s="3">
         <v>-300</v>
       </c>
       <c r="P89" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6792,54 +7038,54 @@
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
       </c>
       <c r="Q100" s="3">
         <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>200</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,13 +7178,16 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>-200</v>
@@ -6947,32 +7199,32 @@
         <v>-200</v>
       </c>
       <c r="H102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -6992,15 +7244,18 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,122 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +856,14 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +939,14 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1022,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,22 +1057,24 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -1059,26 +1086,26 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L12" s="3">
         <v>100</v>
       </c>
       <c r="M12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
@@ -1086,31 +1113,37 @@
         <v>0</v>
       </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,25 +1219,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1218,11 +1257,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1233,26 +1272,26 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
@@ -1263,8 +1302,14 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1322,14 +1367,14 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
+      <c r="X15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,25 +1417,27 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H17" s="3">
         <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>200</v>
       </c>
       <c r="I17" s="3">
         <v>200</v>
@@ -1393,58 +1446,64 @@
         <v>200</v>
       </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
+        <v>200</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,16 +1511,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-6200</v>
+        <v>-400</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-200</v>
       </c>
       <c r="I18" s="3">
         <v>-200</v>
@@ -1470,58 +1529,64 @@
         <v>-200</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1614,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,10 +1625,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1573,32 +1640,32 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1612,22 +1679,28 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1688,31 +1761,37 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-800</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1730,7 +1809,7 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1739,23 +1818,23 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1859,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
       </c>
       <c r="Q23" s="3">
         <v>-500</v>
       </c>
       <c r="R23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2025,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
       </c>
       <c r="Q26" s="3">
         <v>-500</v>
       </c>
       <c r="R26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-900</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
       </c>
       <c r="Q27" s="3">
         <v>-500</v>
       </c>
       <c r="R27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2606,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,10 +2621,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2497,32 +2636,32 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2536,99 +2675,111 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
       </c>
       <c r="Q33" s="3">
         <v>-500</v>
       </c>
       <c r="R33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
       </c>
       <c r="Q35" s="3">
         <v>-500</v>
       </c>
       <c r="R35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,56 +3092,58 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
-        <v>900</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
+        <v>800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2987,19 +3160,25 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3254,14 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3090,16 +3275,16 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3108,16 +3293,16 @@
         <v>100</v>
       </c>
       <c r="M43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3144,16 +3329,22 @@
         <v>0</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,16 +3420,22 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3268,14 +3465,14 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
       <c r="R45" s="3">
         <v>0</v>
       </c>
@@ -3298,16 +3495,22 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,47 +3518,47 @@
         <v>200</v>
       </c>
       <c r="E46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
+        <v>300</v>
+      </c>
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>700</v>
-      </c>
-      <c r="L46" s="3">
-        <v>900</v>
       </c>
       <c r="M46" s="3">
         <v>700</v>
       </c>
       <c r="N46" s="3">
+        <v>900</v>
+      </c>
+      <c r="O46" s="3">
+        <v>700</v>
+      </c>
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
@@ -3372,19 +3575,25 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
         <v>100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,70 +3669,76 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>6700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
+        <v>600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>6000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
       </c>
-      <c r="I48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="J48" s="3">
-        <v>6000</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6400</v>
       </c>
       <c r="Q48" s="3">
         <v>6200</v>
       </c>
       <c r="R48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="S48" s="3">
         <v>6200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="U48" s="3">
         <v>6100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>2000</v>
       </c>
       <c r="X48" s="3">
         <v>2000</v>
@@ -3537,8 +3752,14 @@
       <c r="AA48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3835,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,13 +4001,19 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3785,11 +4024,11 @@
       <c r="G52" s="3">
         <v>0</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
@@ -3800,11 +4039,11 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -3845,8 +4084,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>900</v>
+      </c>
+      <c r="G54" s="3">
         <v>1000</v>
-      </c>
-      <c r="F54" s="3">
-        <v>7200</v>
-      </c>
-      <c r="G54" s="3">
-        <v>6800</v>
       </c>
       <c r="H54" s="3">
         <v>6900</v>
       </c>
       <c r="I54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K54" s="3">
         <v>7200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>6900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>6700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6200</v>
-      </c>
-      <c r="S54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>6000</v>
       </c>
       <c r="U54" s="3">
         <v>6100</v>
       </c>
       <c r="V54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="X54" s="3">
         <v>2100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>2200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>3000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,25 +4316,27 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>200</v>
-      </c>
-      <c r="H57" s="3">
-        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -4090,69 +4351,75 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>100</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>200</v>
-      </c>
       <c r="Z57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1200</v>
       </c>
-      <c r="E58" s="3">
-        <v>3500</v>
-      </c>
       <c r="F58" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
+        <v>1200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -4166,11 +4433,11 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4179,28 +4446,28 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>4</v>
@@ -4211,19 +4478,25 @@
       <c r="AA58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100</v>
+      </c>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -4237,11 +4510,11 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4288,25 +4561,31 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
-        <v>4300</v>
+        <v>1700</v>
       </c>
       <c r="F60" s="3">
-        <v>4200</v>
+        <v>1400</v>
       </c>
       <c r="G60" s="3">
-        <v>200</v>
+        <v>4100</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>4100</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4321,52 +4600,58 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
+        <v>200</v>
+      </c>
+      <c r="N60" s="3">
+        <v>100</v>
+      </c>
+      <c r="O60" s="3">
         <v>400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>100</v>
       </c>
-      <c r="X60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>200</v>
-      </c>
       <c r="Z60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4374,46 +4659,46 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4400</v>
       </c>
       <c r="I61" s="3">
         <v>4400</v>
       </c>
       <c r="J61" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="K61" s="3">
         <v>4400</v>
       </c>
       <c r="L61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>800</v>
-      </c>
-      <c r="R61" s="3">
-        <v>800</v>
       </c>
       <c r="S61" s="3">
         <v>800</v>
@@ -4422,14 +4707,14 @@
         <v>800</v>
       </c>
       <c r="U61" s="3">
+        <v>800</v>
+      </c>
+      <c r="V61" s="3">
+        <v>800</v>
+      </c>
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
@@ -4442,13 +4727,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4456,11 +4747,11 @@
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>200</v>
+      </c>
+      <c r="H62" s="3">
+        <v>200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4474,11 +4765,11 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4519,8 +4810,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
-        <v>5200</v>
+        <v>1900</v>
       </c>
       <c r="F66" s="3">
-        <v>5200</v>
+        <v>1600</v>
       </c>
       <c r="G66" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="H66" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="I66" s="3">
         <v>4600</v>
       </c>
       <c r="J66" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="K66" s="3">
         <v>4600</v>
       </c>
       <c r="L66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N66" s="3">
         <v>4900</v>
-      </c>
-      <c r="M66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3700</v>
       </c>
       <c r="O66" s="3">
         <v>4200</v>
       </c>
       <c r="P66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>1000</v>
       </c>
       <c r="AA66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5505,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-108000</v>
+        <v>-104600</v>
       </c>
       <c r="E72" s="3">
-        <v>-108100</v>
+        <v>-104400</v>
       </c>
       <c r="F72" s="3">
-        <v>-101800</v>
+        <v>-104000</v>
       </c>
       <c r="G72" s="3">
-        <v>-101400</v>
+        <v>-104100</v>
       </c>
       <c r="H72" s="3">
-        <v>-101000</v>
+        <v>-98100</v>
       </c>
       <c r="I72" s="3">
+        <v>-97700</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-97300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-100800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-100700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-103400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-102500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-104200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-103000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-102000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-103200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-100300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-100200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-98900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-97600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-97400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-96200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-96100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-95900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-98700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-98400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-800</v>
       </c>
-      <c r="E76" s="3">
-        <v>-4200</v>
-      </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H76" s="3">
         <v>2000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M76" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O76" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P76" s="3">
+        <v>4000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="S76" s="3">
+        <v>4400</v>
+      </c>
+      <c r="T76" s="3">
+        <v>4500</v>
+      </c>
+      <c r="U76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="V76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="W76" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB76" s="3">
         <v>2000</v>
       </c>
-      <c r="H76" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L76" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>4000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P76" s="3">
-        <v>4700</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>4400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>4500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>4600</v>
-      </c>
-      <c r="T76" s="3">
-        <v>4800</v>
-      </c>
-      <c r="U76" s="3">
-        <v>5000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="W76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X76" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
-        <v>-6300</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
       </c>
       <c r="Q81" s="3">
         <v>-500</v>
       </c>
       <c r="R81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6209,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6288,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6703,14 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6288,7 +6721,7 @@
         <v>-200</v>
       </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
@@ -6303,58 +6736,64 @@
         <v>-200</v>
       </c>
       <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-800</v>
       </c>
       <c r="AA89" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6821,10 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6900,14 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +7066,14 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +7149,14 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,61 +7512,67 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
-      </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
-      <c r="T100" s="3">
-        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -7090,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X100" s="3">
         <v>0</v>
@@ -7099,13 +7590,19 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,19 +7678,25 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>-200</v>
-      </c>
       <c r="F102" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
         <v>-200</v>
@@ -7202,35 +7705,35 @@
         <v>-200</v>
       </c>
       <c r="I102" s="3">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>700</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>1800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -7247,15 +7750,21 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -1068,7 +1068,7 @@
         <v>100</v>
       </c>
       <c r="E12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>-200</v>
       </c>
       <c r="G14" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J17" s="3">
         <v>200</v>
@@ -1517,13 +1517,13 @@
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>-5900</v>
+        <v>-6100</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J18" s="3">
         <v>-200</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H23" s="3">
         <v>-400</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H26" s="3">
         <v>-400</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H27" s="3">
         <v>-400</v>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H33" s="3">
         <v>-400</v>
@@ -2876,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H35" s="3">
         <v>-400</v>
@@ -3118,7 +3118,7 @@
         <v>600</v>
       </c>
       <c r="J41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K41" s="3">
         <v>1100</v>
@@ -3693,13 +3693,13 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="I48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J48" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K48" s="3">
         <v>6000</v>
@@ -4191,13 +4191,13 @@
         <v>1000</v>
       </c>
       <c r="H54" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I54" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="J54" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K54" s="3">
         <v>7200</v>
@@ -4324,7 +4324,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
@@ -4410,7 +4410,7 @@
         <v>1300</v>
       </c>
       <c r="E58" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
@@ -4419,7 +4419,7 @@
         <v>3400</v>
       </c>
       <c r="H58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
@@ -4579,13 +4579,13 @@
         <v>1700</v>
       </c>
       <c r="F60" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="G60" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H60" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -4671,10 +4671,10 @@
         <v>700</v>
       </c>
       <c r="I61" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J61" s="3">
         <v>4400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>4300</v>
       </c>
       <c r="K61" s="3">
         <v>4400</v>
@@ -5074,22 +5074,22 @@
         <v>2000</v>
       </c>
       <c r="E66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F66" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="G66" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="H66" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="I66" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J66" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K66" s="3">
         <v>4600</v>
@@ -5517,25 +5517,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-104600</v>
+        <v>-107200</v>
       </c>
       <c r="E72" s="3">
-        <v>-104400</v>
+        <v>-107000</v>
       </c>
       <c r="F72" s="3">
-        <v>-104000</v>
+        <v>-106500</v>
       </c>
       <c r="G72" s="3">
-        <v>-104100</v>
+        <v>-106600</v>
       </c>
       <c r="H72" s="3">
-        <v>-98100</v>
+        <v>-100400</v>
       </c>
       <c r="I72" s="3">
-        <v>-97700</v>
+        <v>-100100</v>
       </c>
       <c r="J72" s="3">
-        <v>-97300</v>
+        <v>-99700</v>
       </c>
       <c r="K72" s="3">
         <v>-100800</v>
@@ -5849,7 +5849,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="E76" s="3">
         <v>-1000</v>
@@ -5858,16 +5858,16 @@
         <v>-800</v>
       </c>
       <c r="G76" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="H76" s="3">
         <v>2000</v>
       </c>
       <c r="I76" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J76" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K76" s="3">
         <v>2600</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="G81" s="3">
-        <v>-6000</v>
+        <v>-6200</v>
       </c>
       <c r="H81" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,28 +1085,30 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -1092,26 +1120,26 @@
         <v>100</v>
       </c>
       <c r="M12" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N12" s="3">
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="3">
         <v>700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
@@ -1119,31 +1147,37 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
       <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
         <v>100</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>600</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1234,22 +1274,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>5900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1263,11 +1303,11 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1278,26 +1318,26 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>0</v>
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1373,14 +1419,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>200</v>
       </c>
       <c r="L17" s="3">
         <v>200</v>
       </c>
       <c r="M17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N17" s="3">
         <v>200</v>
       </c>
       <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-6100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-200</v>
       </c>
       <c r="L18" s="3">
         <v>-200</v>
       </c>
       <c r="M18" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N18" s="3">
         <v>-200</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1625,17 +1693,17 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1646,32 +1714,32 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1685,22 +1753,28 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1767,23 +1841,29 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-800</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1794,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1815,7 +1895,7 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
@@ -1824,23 +1904,23 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
         <v>0</v>
       </c>
@@ -1865,91 +1945,103 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-6200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-400</v>
       </c>
       <c r="S23" s="3">
         <v>-500</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U23" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-6200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-400</v>
       </c>
       <c r="S26" s="3">
         <v>-500</v>
       </c>
       <c r="T26" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U26" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-900</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-6200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-400</v>
       </c>
       <c r="S27" s="3">
         <v>-500</v>
       </c>
       <c r="T27" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U27" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2621,17 +2761,17 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2642,32 +2782,32 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2681,105 +2821,117 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-6200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-400</v>
       </c>
       <c r="S33" s="3">
         <v>-500</v>
       </c>
       <c r="T33" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U33" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-6200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-400</v>
       </c>
       <c r="S35" s="3">
         <v>-500</v>
       </c>
       <c r="T35" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U35" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,8 +3266,10 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3106,50 +3280,50 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -3166,19 +3340,25 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,8 +3440,14 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3281,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -3299,16 +3485,16 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3335,16 +3521,22 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,23 +3618,29 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -3471,14 +3669,14 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3501,24 +3699,30 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>100</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>300</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
@@ -3527,44 +3731,44 @@
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>900</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3581,19 +3785,25 @@
         <v>0</v>
       </c>
       <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
         <v>100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>1300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3693,58 +3909,58 @@
         <v>600</v>
       </c>
       <c r="H48" s="3">
+        <v>600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>600</v>
+      </c>
+      <c r="J48" s="3">
         <v>6600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>5900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>6200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>6100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6200</v>
-      </c>
-      <c r="R48" s="3">
-        <v>6400</v>
       </c>
       <c r="S48" s="3">
         <v>6200</v>
       </c>
       <c r="T48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="U48" s="3">
         <v>6200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="W48" s="3">
         <v>6100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>2000</v>
       </c>
       <c r="Z48" s="3">
         <v>2000</v>
@@ -3758,8 +3974,14 @@
       <c r="AC48" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,19 +4241,25 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4030,11 +4270,11 @@
       <c r="I52" s="3">
         <v>0</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>4</v>
@@ -4045,11 +4285,11 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4090,8 +4330,14 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>800</v>
+      </c>
+      <c r="G54" s="3">
         <v>900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>7200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>6500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>8400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>6700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>6200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>6100</v>
-      </c>
-      <c r="V54" s="3">
-        <v>6000</v>
       </c>
       <c r="W54" s="3">
         <v>6100</v>
       </c>
       <c r="X54" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>2100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>2200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>2500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>3000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4578,10 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4330,19 +4592,19 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -4357,52 +4619,58 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>200</v>
-      </c>
       <c r="AB57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC57" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4413,20 +4681,20 @@
         <v>1300</v>
       </c>
       <c r="F58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>3400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -4439,11 +4707,11 @@
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4452,28 +4720,28 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>4</v>
@@ -4484,8 +4752,14 @@
       <c r="AC58" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4493,17 +4767,17 @@
         <v>400</v>
       </c>
       <c r="E59" s="3">
+        <v>400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>400</v>
+      </c>
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4516,11 +4790,11 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4567,31 +4841,37 @@
       <c r="AC59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -4606,52 +4886,58 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
+        <v>200</v>
+      </c>
+      <c r="P60" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q60" s="3">
         <v>400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>100</v>
       </c>
-      <c r="Z60" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3">
-        <v>200</v>
-      </c>
       <c r="AB60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4665,19 +4951,19 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>4400</v>
-      </c>
-      <c r="K61" s="3">
-        <v>4400</v>
       </c>
       <c r="L61" s="3">
         <v>4400</v>
@@ -4686,25 +4972,25 @@
         <v>4400</v>
       </c>
       <c r="N61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P61" s="3">
         <v>4800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>3500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1800</v>
-      </c>
-      <c r="S61" s="3">
-        <v>800</v>
-      </c>
-      <c r="T61" s="3">
-        <v>800</v>
       </c>
       <c r="U61" s="3">
         <v>800</v>
@@ -4713,14 +4999,14 @@
         <v>800</v>
       </c>
       <c r="W61" s="3">
+        <v>800</v>
+      </c>
+      <c r="X61" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
@@ -4733,8 +5019,14 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4742,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>200</v>
@@ -4753,11 +5045,11 @@
       <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>200</v>
+      </c>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4771,11 +5063,11 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="E66" s="3">
         <v>2000</v>
       </c>
       <c r="F66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H66" s="3">
         <v>1700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4600</v>
       </c>
       <c r="M66" s="3">
         <v>4600</v>
       </c>
       <c r="N66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="P66" s="3">
         <v>4900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3700</v>
       </c>
       <c r="Q66" s="3">
         <v>4200</v>
       </c>
       <c r="R66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S66" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>1500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AB66" s="3">
-        <v>1000</v>
       </c>
       <c r="AC66" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-107300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-107200</v>
       </c>
-      <c r="E72" s="3">
-        <v>-107000</v>
-      </c>
       <c r="F72" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-106900</v>
+      </c>
+      <c r="H72" s="3">
         <v>-106500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-106600</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-106500</v>
+      </c>
+      <c r="J72" s="3">
         <v>-100400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-100100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-99700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-100800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-100700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-103400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-102500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-104200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-103000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-102000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-103200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-100300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-100200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-98900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-97600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-97400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-96200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-96100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-95900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-98700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-98400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-97600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G76" s="3">
         <v>-1000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-4200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>2000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>2200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>2800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>4000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>4700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>5000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>2000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-6200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-400</v>
       </c>
       <c r="S81" s="3">
         <v>-500</v>
       </c>
       <c r="T81" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U81" s="3">
-        <v>-200</v>
+        <v>-500</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,16 +7137,22 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -6727,7 +7161,7 @@
         <v>-200</v>
       </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
@@ -6742,58 +7176,64 @@
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>-800</v>
       </c>
       <c r="AC89" s="3">
         <v>-500</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7348,14 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7615,14 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,67 +8004,73 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>2100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -7587,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7596,13 +8088,19 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>400</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +8182,14 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7693,16 +8197,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H102" s="3">
-        <v>-200</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
@@ -7711,35 +8215,35 @@
         <v>-200</v>
       </c>
       <c r="K102" s="3">
-        <v>700</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>700</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>1800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7756,15 +8260,21 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>-500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/EUUNF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>EUUNF</t>
   </si>
@@ -1102,7 +1102,7 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H12" s="3">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>-200</v>
       </c>
       <c r="I14" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
@@ -1478,8 +1478,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>100</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1494,7 +1494,7 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="J17" s="3">
         <v>300</v>
@@ -1583,7 +1583,7 @@
         <v>-100</v>
       </c>
       <c r="I18" s="3">
-        <v>-6100</v>
+        <v>-6000</v>
       </c>
       <c r="J18" s="3">
         <v>-300</v>
@@ -1956,8 +1956,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1972,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J23" s="3">
         <v>-400</v>
@@ -2223,8 +2223,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J26" s="3">
         <v>-400</v>
@@ -2312,8 +2312,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J27" s="3">
         <v>-400</v>
@@ -2846,8 +2846,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J33" s="3">
         <v>-400</v>
@@ -3024,8 +3024,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J35" s="3">
         <v>-400</v>
@@ -3915,7 +3915,7 @@
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>6600</v>
+        <v>6500</v>
       </c>
       <c r="K48" s="3">
         <v>5900</v>
@@ -4430,8 +4430,8 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
+      <c r="D54" s="3">
+        <v>800</v>
       </c>
       <c r="E54" s="3">
         <v>800</v>
@@ -4449,7 +4449,7 @@
         <v>1000</v>
       </c>
       <c r="J54" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="K54" s="3">
         <v>6700</v>
@@ -4592,7 +4592,7 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -4693,7 +4693,7 @@
         <v>3400</v>
       </c>
       <c r="J58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
@@ -4853,7 +4853,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E60" s="3">
         <v>2000</v>
@@ -4865,13 +4865,13 @@
         <v>1700</v>
       </c>
       <c r="H60" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I60" s="3">
         <v>4200</v>
       </c>
       <c r="J60" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K60" s="3">
         <v>200</v>
@@ -5387,7 +5387,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E66" s="3">
         <v>2000</v>
@@ -5396,16 +5396,16 @@
         <v>2000</v>
       </c>
       <c r="G66" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H66" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I66" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="J66" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="K66" s="3">
         <v>4700</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-107300</v>
+        <v>-105400</v>
       </c>
       <c r="E72" s="3">
-        <v>-107200</v>
+        <v>-105300</v>
       </c>
       <c r="F72" s="3">
-        <v>-107100</v>
+        <v>-105200</v>
       </c>
       <c r="G72" s="3">
-        <v>-106900</v>
+        <v>-105000</v>
       </c>
       <c r="H72" s="3">
-        <v>-106500</v>
+        <v>-104500</v>
       </c>
       <c r="I72" s="3">
-        <v>-106500</v>
+        <v>-104600</v>
       </c>
       <c r="J72" s="3">
-        <v>-100400</v>
+        <v>-98600</v>
       </c>
       <c r="K72" s="3">
         <v>-100100</v>
@@ -6227,7 +6227,7 @@
         <v>-1200</v>
       </c>
       <c r="F76" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="G76" s="3">
         <v>-1000</v>
@@ -6236,7 +6236,7 @@
         <v>-800</v>
       </c>
       <c r="I76" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J76" s="3">
         <v>2000</v>
@@ -6492,8 +6492,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>-6200</v>
+        <v>-6100</v>
       </c>
       <c r="J81" s="3">
         <v>-400</v>
